--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Lamp2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.388571333333333</v>
+        <v>0.052706</v>
       </c>
       <c r="H2">
-        <v>4.165714</v>
+        <v>0.158118</v>
       </c>
       <c r="I2">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="J2">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>125.0114046666667</v>
+        <v>28.528487</v>
       </c>
       <c r="N2">
-        <v>375.034214</v>
+        <v>85.585461</v>
       </c>
       <c r="O2">
-        <v>0.4125441987306753</v>
+        <v>0.1381240089280516</v>
       </c>
       <c r="P2">
-        <v>0.4125441987306753</v>
+        <v>0.1381240089280516</v>
       </c>
       <c r="Q2">
-        <v>173.5872528598663</v>
+        <v>1.503622435822</v>
       </c>
       <c r="R2">
-        <v>1562.285275738796</v>
+        <v>13.532601922398</v>
       </c>
       <c r="S2">
-        <v>0.1453610462252418</v>
+        <v>0.001822924697119703</v>
       </c>
       <c r="T2">
-        <v>0.1453610462252418</v>
+        <v>0.001822924697119703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.388571333333333</v>
+        <v>0.052706</v>
       </c>
       <c r="H3">
-        <v>4.165714</v>
+        <v>0.158118</v>
       </c>
       <c r="I3">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="J3">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>417.693146</v>
       </c>
       <c r="O3">
-        <v>0.4594697704883666</v>
+        <v>0.6741034184216166</v>
       </c>
       <c r="P3">
-        <v>0.4594697704883666</v>
+        <v>0.6741034184216166</v>
       </c>
       <c r="Q3">
-        <v>193.3322428884716</v>
+        <v>7.338311651025333</v>
       </c>
       <c r="R3">
-        <v>1739.990185996244</v>
+        <v>66.04480485922799</v>
       </c>
       <c r="S3">
-        <v>0.1618953963055559</v>
+        <v>0.008896641354318648</v>
       </c>
       <c r="T3">
-        <v>0.1618953963055559</v>
+        <v>0.008896641354318648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.388571333333333</v>
+        <v>0.052706</v>
       </c>
       <c r="H4">
-        <v>4.165714</v>
+        <v>0.158118</v>
       </c>
       <c r="I4">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="J4">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>116.349086</v>
       </c>
       <c r="O4">
-        <v>0.1279860307809581</v>
+        <v>0.1877725726503318</v>
       </c>
       <c r="P4">
-        <v>0.1279860307809581</v>
+        <v>0.1877725726503318</v>
       </c>
       <c r="Q4">
-        <v>53.85300182637823</v>
+        <v>2.044098308905333</v>
       </c>
       <c r="R4">
-        <v>484.6770164374041</v>
+        <v>18.396884780148</v>
       </c>
       <c r="S4">
-        <v>0.04509621852344017</v>
+        <v>0.002478173510763754</v>
       </c>
       <c r="T4">
-        <v>0.04509621852344018</v>
+        <v>0.002478173510763754</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.552285333333333</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H5">
-        <v>7.656855999999999</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I5">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="J5">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>125.0114046666667</v>
+        <v>28.528487</v>
       </c>
       <c r="N5">
-        <v>375.034214</v>
+        <v>85.585461</v>
       </c>
       <c r="O5">
-        <v>0.4125441987306753</v>
+        <v>0.1381240089280516</v>
       </c>
       <c r="P5">
-        <v>0.4125441987306753</v>
+        <v>0.1381240089280516</v>
       </c>
       <c r="Q5">
-        <v>319.0647746301316</v>
+        <v>39.61383923157266</v>
       </c>
       <c r="R5">
-        <v>2871.582971671184</v>
+        <v>356.5245530841539</v>
       </c>
       <c r="S5">
-        <v>0.2671831525054336</v>
+        <v>0.04802604973334666</v>
       </c>
       <c r="T5">
-        <v>0.2671831525054335</v>
+        <v>0.04802604973334666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.552285333333333</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H6">
-        <v>7.656855999999999</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I6">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="J6">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>417.693146</v>
       </c>
       <c r="O6">
-        <v>0.4594697704883666</v>
+        <v>0.6741034184216166</v>
       </c>
       <c r="P6">
-        <v>0.4594697704883666</v>
+        <v>0.6741034184216166</v>
       </c>
       <c r="Q6">
-        <v>355.3573634565529</v>
+        <v>193.3322428884715</v>
       </c>
       <c r="R6">
-        <v>3198.216271108976</v>
+        <v>1739.990185996244</v>
       </c>
       <c r="S6">
-        <v>0.2975743741828107</v>
+        <v>0.2343873780509755</v>
       </c>
       <c r="T6">
-        <v>0.2975743741828107</v>
+        <v>0.2343873780509755</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,14 +829,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.552285333333333</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H7">
-        <v>7.656855999999999</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I7">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="J7">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>116.349086</v>
       </c>
       <c r="O7">
-        <v>0.1279860307809581</v>
+        <v>0.1877725726503318</v>
       </c>
       <c r="P7">
-        <v>0.1279860307809581</v>
+        <v>0.1877725726503318</v>
       </c>
       <c r="Q7">
+        <v>53.85300182637822</v>
+      </c>
+      <c r="R7">
+        <v>484.6770164374039</v>
+      </c>
+      <c r="S7">
+        <v>0.06528897461527287</v>
+      </c>
+      <c r="T7">
+        <v>0.06528897461527287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.552285333333333</v>
+      </c>
+      <c r="H8">
+        <v>7.656856</v>
+      </c>
+      <c r="I8">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="J8">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>28.528487</v>
+      </c>
+      <c r="N8">
+        <v>85.585461</v>
+      </c>
+      <c r="O8">
+        <v>0.1381240089280516</v>
+      </c>
+      <c r="P8">
+        <v>0.1381240089280516</v>
+      </c>
+      <c r="Q8">
+        <v>72.81283895229066</v>
+      </c>
+      <c r="R8">
+        <v>655.315550570616</v>
+      </c>
+      <c r="S8">
+        <v>0.08827503449758524</v>
+      </c>
+      <c r="T8">
+        <v>0.08827503449758524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.552285333333333</v>
+      </c>
+      <c r="H9">
+        <v>7.656856</v>
+      </c>
+      <c r="I9">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="J9">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>139.2310486666667</v>
+      </c>
+      <c r="N9">
+        <v>417.693146</v>
+      </c>
+      <c r="O9">
+        <v>0.6741034184216166</v>
+      </c>
+      <c r="P9">
+        <v>0.6741034184216166</v>
+      </c>
+      <c r="Q9">
+        <v>355.3573634565528</v>
+      </c>
+      <c r="R9">
+        <v>3198.216271108976</v>
+      </c>
+      <c r="S9">
+        <v>0.4308193990163224</v>
+      </c>
+      <c r="T9">
+        <v>0.4308193990163224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.552285333333333</v>
+      </c>
+      <c r="H10">
+        <v>7.656856</v>
+      </c>
+      <c r="I10">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="J10">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>38.78302866666667</v>
+      </c>
+      <c r="N10">
+        <v>116.349086</v>
+      </c>
+      <c r="O10">
+        <v>0.1877725726503318</v>
+      </c>
+      <c r="P10">
+        <v>0.1877725726503318</v>
+      </c>
+      <c r="Q10">
         <v>98.98535524817956</v>
       </c>
-      <c r="R7">
-        <v>890.8681972336159</v>
-      </c>
-      <c r="S7">
-        <v>0.08288981225751793</v>
-      </c>
-      <c r="T7">
-        <v>0.08288981225751793</v>
+      <c r="R10">
+        <v>890.868197233616</v>
+      </c>
+      <c r="S10">
+        <v>0.1200054245242952</v>
+      </c>
+      <c r="T10">
+        <v>0.1200054245242952</v>
       </c>
     </row>
   </sheetData>
